--- a/exercises/ex030.MF_gas_fraction.xlsx
+++ b/exercises/ex030.MF_gas_fraction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08248D5-0C59-442F-9D17-FE3E9CE174BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914D684-D0B3-44BC-BE73-6B77F612BBFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="0" windowWidth="25665" windowHeight="17400" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -40,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -496,8 +498,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -750,7 +752,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -767,7 +769,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,28 +1059,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>4384.9208944046532</c:v>
+                  <c:v>4383.720536459653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>895.5314731893435</c:v>
+                  <c:v>894.34000240050182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>457.52196291848088</c:v>
+                  <c:v>456.06616253758637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.5580099728102</c:v>
+                  <c:v>235.5216625827027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127.34291705604421</c:v>
+                  <c:v>124.55682626487538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.958116918328031</c:v>
+                  <c:v>88.216915161878404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.12514975280493</c:v>
+                  <c:v>71.137132630530871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.692214211851287</c:v>
+                  <c:v>61.897693442257236</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>58.269218872505917</c:v>
@@ -1689,28 +1691,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.98817453533504207</c:v>
+                  <c:v>0.98817129726583908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94196376758249556</c:v>
+                  <c:v>0.94188644969954916</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88600123515272744</c:v>
+                  <c:v>0.8856373417992659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7786362008092611</c:v>
+                  <c:v>0.77672226393482147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57902391262069741</c:v>
+                  <c:v>0.56960750698865614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39765311202477677</c:v>
+                  <c:v>0.37893613077146754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23287328869101942</c:v>
+                  <c:v>0.21143496273322696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2581289136215014E-2</c:v>
+                  <c:v>7.0805273267781174E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2319,82 +2321,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.9508837527251026E-2</c:v>
+                  <c:v>3.9519655933955178E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18157827576436122</c:v>
+                  <c:v>0.18182018633402261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.325857291127499</c:v>
+                  <c:v>0.32689752473971345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53142522047317331</c:v>
+                  <c:v>0.53602105525471389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75498051455463777</c:v>
+                  <c:v>0.77188693776448936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86227255664952251</c:v>
+                  <c:v>0.88916953305229551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91812671879494301</c:v>
+                  <c:v>0.9441120330372863</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94832891380180462</c:v>
+                  <c:v>0.96125319059888936</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97353289568835177</c:v>
+                  <c:v>0.97486700616513766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.010519545543191</c:v>
+                  <c:v>1.0124722153490306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0530067961645928</c:v>
+                  <c:v>1.0556243369610341</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1004514219075594</c:v>
+                  <c:v>1.1037361591582464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1524269964330116</c:v>
+                  <c:v>1.156343457343628</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2085814684237663</c:v>
+                  <c:v>1.213059256352276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2686117082598487</c:v>
+                  <c:v>1.2735422159272607</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3322475954904465</c:v>
+                  <c:v>1.3374748618282903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3992403776034839</c:v>
+                  <c:v>1.404549030064107</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.46934971037581</c:v>
+                  <c:v>1.4744565347774614</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5423218974058981</c:v>
+                  <c:v>1.5468835521154833</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6178516192848016</c:v>
+                  <c:v>1.621507632183085</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.695530752708913</c:v>
+                  <c:v>1.6979965817797602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7748213807568383</c:v>
+                  <c:v>1.7760086955838463</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8551170932673062</c:v>
+                  <c:v>1.8551939694352642</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9358903786391266</c:v>
+                  <c:v>1.9351960291509773</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0167898633610855</c:v>
+                  <c:v>2.0156545714779921</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0975829431865414</c:v>
+                  <c:v>2.0962081544363356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,19 +2944,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>21.0205078125</c:v>
+                  <c:v>20.599365234375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.155517578125</c:v>
+                  <c:v>50.20751953125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.89013671875</c:v>
+                  <c:v>69.6533203125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.1201171875</c:v>
+                  <c:v>102.099609375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.7734375</c:v>
+                  <c:v>193.06640625</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>300</c:v>
@@ -3039,7 +3041,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Р при 
-βgas =0,5</c:v>
+βgas =0.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3162,37 +3164,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>8.31298828125</c:v>
+                  <c:v>8.26263427734375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.901123046875</c:v>
+                  <c:v>28.948974609375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.882080078125</c:v>
+                  <c:v>44.989013671875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.529296875</c:v>
+                  <c:v>60.90087890625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.25390625</c:v>
+                  <c:v>74.74365234375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.0322265625</c:v>
+                  <c:v>87.5244140625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126.416015625</c:v>
+                  <c:v>106.0546875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141.796875</c:v>
+                  <c:v>128.173828125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.7412109375</c:v>
+                  <c:v>157.763671875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.54296875</c:v>
+                  <c:v>204.4921875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>294.140625</c:v>
+                  <c:v>287.109375</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>300</c:v>
@@ -3259,7 +3261,7 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Р при 
-βgas =0,75</c:v>
+βgas =0.75</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3382,82 +3384,82 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.941131591796875</c:v>
+                  <c:v>2.93426513671875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.982177734375</c:v>
+                  <c:v>12.85400390625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.32763671875</c:v>
+                  <c:v>22.760009765625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.6181640625</c:v>
+                  <c:v>32.135009765625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.359375</c:v>
+                  <c:v>40.46630859375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.62451171875</c:v>
+                  <c:v>47.955322265625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61.5234375</c:v>
+                  <c:v>54.78515625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.98291015625</c:v>
+                  <c:v>61.083984375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.0029296875</c:v>
+                  <c:v>66.943359375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85.546875</c:v>
+                  <c:v>72.54638671875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.6767578125</c:v>
+                  <c:v>77.9296875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>102.0263671875</c:v>
+                  <c:v>83.1298828125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.423828125</c:v>
+                  <c:v>88.18359375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116.015625</c:v>
+                  <c:v>94.3359375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>122.021484375</c:v>
+                  <c:v>100.78125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>127.5146484375</c:v>
+                  <c:v>107.4462890625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>132.71484375</c:v>
+                  <c:v>114.404296875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.7685546875</c:v>
+                  <c:v>121.875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>142.822265625</c:v>
+                  <c:v>129.931640625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>148.095703125</c:v>
+                  <c:v>138.720703125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154.1015625</c:v>
+                  <c:v>148.681640625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>161.42578125</c:v>
+                  <c:v>160.25390625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>171.6796875</c:v>
+                  <c:v>173.4375</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>188.671875</c:v>
+                  <c:v>189.55078125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>211.23046875</c:v>
+                  <c:v>208.59375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>237.3046875</c:v>
+                  <c:v>232.03125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,82 +3989,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.2105546241270334E-2</c:v>
+                  <c:v>1.2105548644532123E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2152607093515563E-2</c:v>
+                  <c:v>1.2152704989797817E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2231437157962866E-2</c:v>
+                  <c:v>1.2232054201935603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.242965872389205E-2</c:v>
+                  <c:v>1.2434456281957959E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2940038915198142E-2</c:v>
+                  <c:v>1.2984176826364345E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3565718967699225E-2</c:v>
+                  <c:v>1.3731908321690887E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4281265311255864E-2</c:v>
+                  <c:v>1.4696072111725578E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5067188178231777E-2</c:v>
+                  <c:v>1.5875949307699977E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5906881569035945E-2</c:v>
+                  <c:v>1.7240992045821735E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6786635470529682E-2</c:v>
+                  <c:v>1.8739305276369276E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7696649218225117E-2</c:v>
+                  <c:v>2.0314190014666292E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8632637091865627E-2</c:v>
+                  <c:v>2.1917374342552566E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.959793520234334E-2</c:v>
+                  <c:v>2.3514396112959614E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0606043940918212E-2</c:v>
+                  <c:v>2.5083831869427847E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1683383160038823E-2</c:v>
+                  <c:v>2.6613890827450862E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2871605188958734E-2</c:v>
+                  <c:v>2.8098871526802589E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.422784902336915E-2</c:v>
+                  <c:v>2.9536501483992422E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5819443725453597E-2</c:v>
+                  <c:v>3.092626812710509E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7706850757567025E-2</c:v>
+                  <c:v>3.2268505467152347E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9907947532178368E-2</c:v>
+                  <c:v>3.3563960430461753E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.234779767218704E-2</c:v>
+                  <c:v>3.4813626743034121E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4831394992291626E-2</c:v>
+                  <c:v>3.6018709819299714E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7103767854624728E-2</c:v>
+                  <c:v>3.7180644022582574E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8995470709754662E-2</c:v>
+                  <c:v>3.8301121221605575E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0517403578276795E-2</c:v>
+                  <c:v>3.9382111695183519E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1800659307069124E-2</c:v>
+                  <c:v>4.0425870556863336E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4572,82 +4574,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.9508837527251026E-2</c:v>
+                  <c:v>3.9519655933955178E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18157827576436122</c:v>
+                  <c:v>0.18182018633402261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.325857291127499</c:v>
+                  <c:v>0.32689752473971345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53142522047317331</c:v>
+                  <c:v>0.53602105525471389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75498051455463777</c:v>
+                  <c:v>0.77188693776448936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86227255664952251</c:v>
+                  <c:v>0.88916953305229551</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91812671879494301</c:v>
+                  <c:v>0.9441120330372863</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94832891380180462</c:v>
+                  <c:v>0.96125319059888936</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97353289568835177</c:v>
+                  <c:v>0.97486700616513766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.010519545543191</c:v>
+                  <c:v>1.0124722153490306</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0530067961645928</c:v>
+                  <c:v>1.0556243369610341</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1004514219075594</c:v>
+                  <c:v>1.1037361591582464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1524269964330116</c:v>
+                  <c:v>1.156343457343628</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2085814684237663</c:v>
+                  <c:v>1.213059256352276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2686117082598487</c:v>
+                  <c:v>1.2735422159272607</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3322475954904465</c:v>
+                  <c:v>1.3374748618282903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3992403776034839</c:v>
+                  <c:v>1.404549030064107</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.46934971037581</c:v>
+                  <c:v>1.4744565347774614</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5423218974058981</c:v>
+                  <c:v>1.5468835521154833</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6178516192848016</c:v>
+                  <c:v>1.621507632183085</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.695530752708913</c:v>
+                  <c:v>1.6979965817797602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7748213807568383</c:v>
+                  <c:v>1.7760086955838463</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8551170932673062</c:v>
+                  <c:v>1.8551939694352642</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9358903786391266</c:v>
+                  <c:v>1.9351960291509773</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0167898633610855</c:v>
+                  <c:v>2.0156545714779921</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0975829431865414</c:v>
+                  <c:v>2.0962081544363356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8285,29 +8287,29 @@
   </sheetPr>
   <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="13" width="10.1796875" customWidth="1"/>
-    <col min="23" max="26" width="9.1796875" customWidth="1"/>
-    <col min="27" max="27" width="5.81640625" customWidth="1"/>
-    <col min="28" max="28" width="9.1796875" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="13" width="10.140625" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -8316,20 +8318,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.10</v>
+        <v>7.14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
@@ -8345,7 +8347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
@@ -8377,7 +8379,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>29</v>
       </c>
@@ -8431,7 +8433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
@@ -8460,7 +8462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
@@ -8471,12 +8473,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
         <v>37</v>
       </c>
@@ -8498,16 +8500,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="24" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -8527,9 +8529,9 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="24" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="K26" s="2">
         <v>0.25</v>
       </c>
@@ -8540,7 +8542,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="32.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:20" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="C27" s="19" t="s">
         <v>0</v>
       </c>
@@ -8572,18 +8574,18 @@
         <f>"Р при 
 βgas ="&amp;betta_gas2_</f>
         <v>Р при 
-βgas =0,5</v>
+βgas =0.5</v>
       </c>
       <c r="M27" s="22" t="str">
         <f>"Р при 
 βgas ="&amp;betta_gas3_</f>
         <v>Р при 
-βgas =0,75</v>
+βgas =0.75</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>1</v>
       </c>
@@ -8592,39 +8594,39 @@
       </c>
       <c r="E28" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C28,D28,PVRstr1_)</f>
-        <v>4384.9208944046532</v>
+        <v>4383.720536459653</v>
       </c>
       <c r="F28" s="9">
         <f>[1]!MF_gas_fraction_d(C28,D28,fw_,PVRstr1_)</f>
-        <v>0.98817453533504207</v>
+        <v>0.98817129726583908</v>
       </c>
       <c r="G28" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C28,D28,PVRstr1_)</f>
-        <v>3.9508837527251026E-2</v>
+        <v>3.9519655933955178E-2</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
       <c r="J28" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I28,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J28)</f>
-        <v>21.0205078125</v>
+        <v>20.599365234375</v>
       </c>
       <c r="L28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J28)</f>
-        <v>8.31298828125</v>
+        <v>8.26263427734375</v>
       </c>
       <c r="M28" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J28)</f>
-        <v>2.941131591796875</v>
+        <v>2.93426513671875</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
         <v>5</v>
       </c>
@@ -8634,39 +8636,39 @@
       </c>
       <c r="E29" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C29,D29,PVRstr1_)</f>
-        <v>895.5314731893435</v>
+        <v>894.34000240050182</v>
       </c>
       <c r="F29" s="9">
         <f>[1]!MF_gas_fraction_d(C29,D29,fw_,PVRstr1_)</f>
-        <v>0.94196376758249556</v>
+        <v>0.94188644969954916</v>
       </c>
       <c r="G29" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C29,D29,PVRstr1_)</f>
-        <v>0.18157827576436122</v>
+        <v>0.18182018633402261</v>
       </c>
       <c r="I29" s="2">
         <v>50</v>
       </c>
       <c r="J29" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I29,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J29)</f>
-        <v>53.155517578125</v>
+        <v>50.20751953125</v>
       </c>
       <c r="L29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J29)</f>
-        <v>29.901123046875</v>
+        <v>28.948974609375</v>
       </c>
       <c r="M29" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J29)</f>
-        <v>12.982177734375</v>
+        <v>12.85400390625</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>10</v>
       </c>
@@ -8676,39 +8678,39 @@
       </c>
       <c r="E30" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C30,D30,PVRstr1_)</f>
-        <v>457.52196291848088</v>
+        <v>456.06616253758637</v>
       </c>
       <c r="F30" s="9">
         <f>[1]!MF_gas_fraction_d(C30,D30,fw_,PVRstr1_)</f>
-        <v>0.88600123515272744</v>
+        <v>0.8856373417992659</v>
       </c>
       <c r="G30" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C30,D30,PVRstr1_)</f>
-        <v>0.325857291127499</v>
+        <v>0.32689752473971345</v>
       </c>
       <c r="I30" s="2">
         <v>100</v>
       </c>
       <c r="J30" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I30,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J30)</f>
-        <v>74.89013671875</v>
+        <v>69.6533203125</v>
       </c>
       <c r="L30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J30)</f>
-        <v>47.882080078125</v>
+        <v>44.989013671875</v>
       </c>
       <c r="M30" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J30)</f>
-        <v>23.32763671875</v>
+        <v>22.760009765625</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>20</v>
       </c>
@@ -8718,39 +8720,39 @@
       </c>
       <c r="E31" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C31,D31,PVRstr1_)</f>
-        <v>237.5580099728102</v>
+        <v>235.5216625827027</v>
       </c>
       <c r="F31" s="9">
         <f>[1]!MF_gas_fraction_d(C31,D31,fw_,PVRstr1_)</f>
-        <v>0.7786362008092611</v>
+        <v>0.77672226393482147</v>
       </c>
       <c r="G31" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C31,D31,PVRstr1_)</f>
-        <v>0.53142522047317331</v>
+        <v>0.53602105525471389</v>
       </c>
       <c r="I31" s="2">
         <v>150</v>
       </c>
       <c r="J31" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I31,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J31)</f>
-        <v>123.1201171875</v>
+        <v>102.099609375</v>
       </c>
       <c r="L31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J31)</f>
-        <v>67.529296875</v>
+        <v>60.90087890625</v>
       </c>
       <c r="M31" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J31)</f>
-        <v>33.6181640625</v>
+        <v>32.135009765625</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>40</v>
       </c>
@@ -8760,39 +8762,39 @@
       </c>
       <c r="E32" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C32,D32,PVRstr1_)</f>
-        <v>127.34291705604421</v>
+        <v>124.55682626487538</v>
       </c>
       <c r="F32" s="9">
         <f>[1]!MF_gas_fraction_d(C32,D32,fw_,PVRstr1_)</f>
-        <v>0.57902391262069741</v>
+        <v>0.56960750698865614</v>
       </c>
       <c r="G32" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C32,D32,PVRstr1_)</f>
-        <v>0.75498051455463777</v>
+        <v>0.77188693776448936</v>
       </c>
       <c r="I32" s="2">
         <v>200</v>
       </c>
       <c r="J32" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I32,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J32)</f>
-        <v>192.7734375</v>
+        <v>193.06640625</v>
       </c>
       <c r="L32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J32)</f>
-        <v>85.25390625</v>
+        <v>74.74365234375</v>
       </c>
       <c r="M32" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J32)</f>
-        <v>43.359375</v>
+        <v>40.46630859375</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>60</v>
       </c>
@@ -8802,22 +8804,22 @@
       </c>
       <c r="E33" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C33,D33,PVRstr1_)</f>
-        <v>90.958116918328031</v>
+        <v>88.216915161878404</v>
       </c>
       <c r="F33" s="9">
         <f>[1]!MF_gas_fraction_d(C33,D33,fw_,PVRstr1_)</f>
-        <v>0.39765311202477677</v>
+        <v>0.37893613077146754</v>
       </c>
       <c r="G33" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C33,D33,PVRstr1_)</f>
-        <v>0.86227255664952251</v>
+        <v>0.88916953305229551</v>
       </c>
       <c r="I33" s="2">
         <v>250</v>
       </c>
       <c r="J33" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I33,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J33)</f>
@@ -8825,16 +8827,16 @@
       </c>
       <c r="L33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J33)</f>
-        <v>108.0322265625</v>
+        <v>87.5244140625</v>
       </c>
       <c r="M33" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J33)</f>
-        <v>52.62451171875</v>
+        <v>47.955322265625</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>80</v>
       </c>
@@ -8844,22 +8846,22 @@
       </c>
       <c r="E34" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C34,D34,PVRstr1_)</f>
-        <v>73.12514975280493</v>
+        <v>71.137132630530871</v>
       </c>
       <c r="F34" s="9">
         <f>[1]!MF_gas_fraction_d(C34,D34,fw_,PVRstr1_)</f>
-        <v>0.23287328869101942</v>
+        <v>0.21143496273322696</v>
       </c>
       <c r="G34" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C34,D34,PVRstr1_)</f>
-        <v>0.91812671879494301</v>
+        <v>0.9441120330372863</v>
       </c>
       <c r="I34" s="2">
         <v>300</v>
       </c>
       <c r="J34" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I34,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J34)</f>
@@ -8867,16 +8869,16 @@
       </c>
       <c r="L34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J34)</f>
-        <v>126.416015625</v>
+        <v>106.0546875</v>
       </c>
       <c r="M34" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J34)</f>
-        <v>61.5234375</v>
+        <v>54.78515625</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>100</v>
       </c>
@@ -8886,22 +8888,22 @@
       </c>
       <c r="E35" s="8">
         <f>[1]!MF_q_mix_rc_m3day(Q_,fw_,C35,D35,PVRstr1_)</f>
-        <v>62.692214211851287</v>
+        <v>61.897693442257236</v>
       </c>
       <c r="F35" s="9">
         <f>[1]!MF_gas_fraction_d(C35,D35,fw_,PVRstr1_)</f>
-        <v>8.2581289136215014E-2</v>
+        <v>7.0805273267781174E-2</v>
       </c>
       <c r="G35" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C35,D35,PVRstr1_)</f>
-        <v>0.94832891380180462</v>
+        <v>0.96125319059888936</v>
       </c>
       <c r="I35" s="2">
         <v>350</v>
       </c>
       <c r="J35" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I35,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J35)</f>
@@ -8909,16 +8911,16 @@
       </c>
       <c r="L35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J35)</f>
-        <v>141.796875</v>
+        <v>128.173828125</v>
       </c>
       <c r="M35" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J35)</f>
-        <v>69.98291015625</v>
+        <v>61.083984375</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>120</v>
       </c>
@@ -8936,14 +8938,14 @@
       </c>
       <c r="G36" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C36,D36,PVRstr1_)</f>
-        <v>0.97353289568835177</v>
+        <v>0.97486700616513766</v>
       </c>
       <c r="I36" s="2">
         <v>400</v>
       </c>
       <c r="J36" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I36,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J36)</f>
@@ -8951,16 +8953,16 @@
       </c>
       <c r="L36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J36)</f>
-        <v>159.7412109375</v>
+        <v>157.763671875</v>
       </c>
       <c r="M36" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J36)</f>
-        <v>78.0029296875</v>
+        <v>66.943359375</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>140</v>
       </c>
@@ -8978,14 +8980,14 @@
       </c>
       <c r="G37" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C37,D37,PVRstr1_)</f>
-        <v>1.010519545543191</v>
+        <v>1.0124722153490306</v>
       </c>
       <c r="I37" s="2">
         <v>450</v>
       </c>
       <c r="J37" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I37,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J37)</f>
@@ -8993,16 +8995,16 @@
       </c>
       <c r="L37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J37)</f>
-        <v>206.54296875</v>
+        <v>204.4921875</v>
       </c>
       <c r="M37" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J37)</f>
-        <v>85.546875</v>
+        <v>72.54638671875</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>160</v>
       </c>
@@ -9020,14 +9022,14 @@
       </c>
       <c r="G38" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C38,D38,PVRstr1_)</f>
-        <v>1.0530067961645928</v>
+        <v>1.0556243369610341</v>
       </c>
       <c r="I38" s="2">
         <v>500</v>
       </c>
       <c r="J38" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I38,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J38)</f>
@@ -9035,16 +9037,16 @@
       </c>
       <c r="L38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas2_,20,fw_,J38)</f>
-        <v>294.140625</v>
+        <v>287.109375</v>
       </c>
       <c r="M38" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J38)</f>
-        <v>93.6767578125</v>
+        <v>77.9296875</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
         <v>180</v>
       </c>
@@ -9062,14 +9064,14 @@
       </c>
       <c r="G39" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C39,D39,PVRstr1_)</f>
-        <v>1.1004514219075594</v>
+        <v>1.1037361591582464</v>
       </c>
       <c r="I39" s="2">
         <v>550</v>
       </c>
       <c r="J39" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I39,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K39" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J39)</f>
@@ -9081,12 +9083,12 @@
       </c>
       <c r="M39" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J39)</f>
-        <v>102.0263671875</v>
+        <v>83.1298828125</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>200</v>
       </c>
@@ -9104,14 +9106,14 @@
       </c>
       <c r="G40" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C40,D40,PVRstr1_)</f>
-        <v>1.1524269964330116</v>
+        <v>1.156343457343628</v>
       </c>
       <c r="I40" s="2">
         <v>600</v>
       </c>
       <c r="J40" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I40,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K40" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J40)</f>
@@ -9123,12 +9125,12 @@
       </c>
       <c r="M40" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J40)</f>
-        <v>109.423828125</v>
+        <v>88.18359375</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>220</v>
       </c>
@@ -9146,14 +9148,14 @@
       </c>
       <c r="G41" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C41,D41,PVRstr1_)</f>
-        <v>1.2085814684237663</v>
+        <v>1.213059256352276</v>
       </c>
       <c r="I41" s="2">
         <v>650</v>
       </c>
       <c r="J41" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I41,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K41" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J41)</f>
@@ -9165,12 +9167,12 @@
       </c>
       <c r="M41" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J41)</f>
-        <v>116.015625</v>
+        <v>94.3359375</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
         <v>240</v>
       </c>
@@ -9188,14 +9190,14 @@
       </c>
       <c r="G42" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C42,D42,PVRstr1_)</f>
-        <v>1.2686117082598487</v>
+        <v>1.2735422159272607</v>
       </c>
       <c r="I42" s="2">
         <v>700</v>
       </c>
       <c r="J42" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I42,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K42" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J42)</f>
@@ -9207,12 +9209,12 @@
       </c>
       <c r="M42" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J42)</f>
-        <v>122.021484375</v>
+        <v>100.78125</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>260</v>
       </c>
@@ -9230,14 +9232,14 @@
       </c>
       <c r="G43" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C43,D43,PVRstr1_)</f>
-        <v>1.3322475954904465</v>
+        <v>1.3374748618282903</v>
       </c>
       <c r="I43" s="2">
         <v>750</v>
       </c>
       <c r="J43" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I43,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K43" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J43)</f>
@@ -9249,12 +9251,12 @@
       </c>
       <c r="M43" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J43)</f>
-        <v>127.5146484375</v>
+        <v>107.4462890625</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>280</v>
       </c>
@@ -9272,14 +9274,14 @@
       </c>
       <c r="G44" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C44,D44,PVRstr1_)</f>
-        <v>1.3992403776034839</v>
+        <v>1.404549030064107</v>
       </c>
       <c r="I44" s="2">
         <v>800</v>
       </c>
       <c r="J44" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I44,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K44" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J44)</f>
@@ -9291,12 +9293,12 @@
       </c>
       <c r="M44" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J44)</f>
-        <v>132.71484375</v>
+        <v>114.404296875</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
     </row>
-    <row r="45" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
         <v>300</v>
       </c>
@@ -9314,14 +9316,14 @@
       </c>
       <c r="G45" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C45,D45,PVRstr1_)</f>
-        <v>1.46934971037581</v>
+        <v>1.4744565347774614</v>
       </c>
       <c r="I45" s="2">
         <v>850</v>
       </c>
       <c r="J45" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I45,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K45" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J45)</f>
@@ -9333,12 +9335,12 @@
       </c>
       <c r="M45" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J45)</f>
-        <v>137.7685546875</v>
+        <v>121.875</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
         <v>320</v>
       </c>
@@ -9356,14 +9358,14 @@
       </c>
       <c r="G46" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C46,D46,PVRstr1_)</f>
-        <v>1.5423218974058981</v>
+        <v>1.5468835521154833</v>
       </c>
       <c r="I46" s="2">
         <v>900</v>
       </c>
       <c r="J46" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I46,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K46" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J46)</f>
@@ -9375,12 +9377,12 @@
       </c>
       <c r="M46" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J46)</f>
-        <v>142.822265625</v>
+        <v>129.931640625</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>340</v>
       </c>
@@ -9398,14 +9400,14 @@
       </c>
       <c r="G47" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C47,D47,PVRstr1_)</f>
-        <v>1.6178516192848016</v>
+        <v>1.621507632183085</v>
       </c>
       <c r="I47" s="2">
         <v>950</v>
       </c>
       <c r="J47" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I47,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K47" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J47)</f>
@@ -9417,12 +9419,12 @@
       </c>
       <c r="M47" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J47)</f>
-        <v>148.095703125</v>
+        <v>138.720703125</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
         <v>360</v>
       </c>
@@ -9440,14 +9442,14 @@
       </c>
       <c r="G48" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C48,D48,PVRstr1_)</f>
-        <v>1.695530752708913</v>
+        <v>1.6979965817797602</v>
       </c>
       <c r="I48" s="2">
         <v>1000</v>
       </c>
       <c r="J48" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I48,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K48" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J48)</f>
@@ -9459,12 +9461,12 @@
       </c>
       <c r="M48" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J48)</f>
-        <v>154.1015625</v>
+        <v>148.681640625</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
         <v>380</v>
       </c>
@@ -9482,14 +9484,14 @@
       </c>
       <c r="G49" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C49,D49,PVRstr1_)</f>
-        <v>1.7748213807568383</v>
+        <v>1.7760086955838463</v>
       </c>
       <c r="I49" s="2">
         <v>1050</v>
       </c>
       <c r="J49" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I49,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1050,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1050.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K49" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J49)</f>
@@ -9501,12 +9503,12 @@
       </c>
       <c r="M49" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J49)</f>
-        <v>161.42578125</v>
+        <v>160.25390625</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
     </row>
-    <row r="50" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
         <v>400</v>
       </c>
@@ -9524,14 +9526,14 @@
       </c>
       <c r="G50" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C50,D50,PVRstr1_)</f>
-        <v>1.8551170932673062</v>
+        <v>1.8551939694352642</v>
       </c>
       <c r="I50" s="2">
         <v>1100</v>
       </c>
       <c r="J50" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I50,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1100,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1100.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K50" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J50)</f>
@@ -9543,12 +9545,12 @@
       </c>
       <c r="M50" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J50)</f>
-        <v>171.6796875</v>
+        <v>173.4375</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="2">
         <v>420</v>
       </c>
@@ -9566,14 +9568,14 @@
       </c>
       <c r="G51" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C51,D51,PVRstr1_)</f>
-        <v>1.9358903786391266</v>
+        <v>1.9351960291509773</v>
       </c>
       <c r="I51" s="2">
         <v>1150</v>
       </c>
       <c r="J51" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I51,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1150,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1150.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K51" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J51)</f>
@@ -9585,12 +9587,12 @@
       </c>
       <c r="M51" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J51)</f>
-        <v>188.671875</v>
+        <v>189.55078125</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
         <v>440</v>
       </c>
@@ -9608,14 +9610,14 @@
       </c>
       <c r="G52" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C52,D52,PVRstr1_)</f>
-        <v>2.0167898633610855</v>
+        <v>2.0156545714779921</v>
       </c>
       <c r="I52" s="2">
         <v>1200</v>
       </c>
       <c r="J52" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I52,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1200,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1200.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K52" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J52)</f>
@@ -9627,12 +9629,12 @@
       </c>
       <c r="M52" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J52)</f>
-        <v>211.23046875</v>
+        <v>208.59375</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
         <v>460</v>
       </c>
@@ -9650,14 +9652,14 @@
       </c>
       <c r="G53" s="9">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C53,D53,PVRstr1_)</f>
-        <v>2.0975829431865414</v>
+        <v>2.0962081544363356</v>
       </c>
       <c r="I53" s="2">
         <v>1250</v>
       </c>
       <c r="J53" s="25" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,I53,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1250,000;pb_atma:120,000;t_res_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1250.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="K53" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas1_,20,fw_,J53)</f>
@@ -9669,13 +9671,13 @@
       </c>
       <c r="M53" s="8">
         <f>[1]!MF_p_gas_fraction_atma(betta_gas3_,20,fw_,J53)</f>
-        <v>237.3046875</v>
+        <v>232.03125</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="3:12" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="3:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C97" s="10" t="str">
         <f t="shared" ref="C97:D106" si="1">C27</f>
         <v>P</v>
@@ -9697,7 +9699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9708,11 +9710,11 @@
       </c>
       <c r="E98" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C98,D98,PVRstr1_)</f>
-        <v>3.9508837527251026E-2</v>
+        <v>3.9519655933955178E-2</v>
       </c>
       <c r="F98" s="7">
         <f>[1]!PVT_mu_gas_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2105546241270334E-2</v>
+        <v>1.2105548644532123E-2</v>
       </c>
       <c r="G98" s="7">
         <f>[1]!PVT_mu_oil_cP(C98,D98,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9723,7 +9725,7 @@
         <v>0.33586886209810729</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9734,11 +9736,11 @@
       </c>
       <c r="E99" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C99,D99,PVRstr1_)</f>
-        <v>0.18157827576436122</v>
+        <v>0.18182018633402261</v>
       </c>
       <c r="F99" s="7">
         <f>[1]!PVT_mu_gas_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2152607093515563E-2</v>
+        <v>1.2152704989797817E-2</v>
       </c>
       <c r="G99" s="7">
         <f>[1]!PVT_mu_oil_cP(C99,D99,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9749,7 +9751,7 @@
         <v>0.3366698582445789</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="24">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9760,11 +9762,11 @@
       </c>
       <c r="E100" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C100,D100,PVRstr1_)</f>
-        <v>0.325857291127499</v>
+        <v>0.32689752473971345</v>
       </c>
       <c r="F100" s="7">
         <f>[1]!PVT_mu_gas_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2231437157962866E-2</v>
+        <v>1.2232054201935603E-2</v>
       </c>
       <c r="G100" s="7">
         <f>[1]!PVT_mu_oil_cP(C100,D100,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9775,7 +9777,7 @@
         <v>0.33768124309210917</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="24">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -9786,11 +9788,11 @@
       </c>
       <c r="E101" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C101,D101,PVRstr1_)</f>
-        <v>0.53142522047317331</v>
+        <v>0.53602105525471389</v>
       </c>
       <c r="F101" s="7">
         <f>[1]!PVT_mu_gas_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.242965872389205E-2</v>
+        <v>1.2434456281957959E-2</v>
       </c>
       <c r="G101" s="7">
         <f>[1]!PVT_mu_oil_cP(C101,D101,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9801,7 +9803,7 @@
         <v>0.33973781166863876</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="24">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -9812,11 +9814,11 @@
       </c>
       <c r="E102" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C102,D102,PVRstr1_)</f>
-        <v>0.75498051455463777</v>
+        <v>0.77188693776448936</v>
       </c>
       <c r="F102" s="7">
         <f>[1]!PVT_mu_gas_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.2940038915198142E-2</v>
+        <v>1.2984176826364345E-2</v>
       </c>
       <c r="G102" s="7">
         <f>[1]!PVT_mu_oil_cP(C102,D102,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9827,7 +9829,7 @@
         <v>0.34398614434757446</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C103" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -9838,11 +9840,11 @@
       </c>
       <c r="E103" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C103,D103,PVRstr1_)</f>
-        <v>0.86227255664952251</v>
+        <v>0.88916953305229551</v>
       </c>
       <c r="F103" s="7">
         <f>[1]!PVT_mu_gas_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.3565718967699225E-2</v>
+        <v>1.3731908321690887E-2</v>
       </c>
       <c r="G103" s="7">
         <f>[1]!PVT_mu_oil_cP(C103,D103,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9853,7 +9855,7 @@
         <v>0.34841473772767878</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C104" s="24">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -9864,11 +9866,11 @@
       </c>
       <c r="E104" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C104,D104,PVRstr1_)</f>
-        <v>0.91812671879494301</v>
+        <v>0.9441120330372863</v>
       </c>
       <c r="F104" s="7">
         <f>[1]!PVT_mu_gas_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.4281265311255864E-2</v>
+        <v>1.4696072111725578E-2</v>
       </c>
       <c r="G104" s="7">
         <f>[1]!PVT_mu_oil_cP(C104,D104,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9879,7 +9881,7 @@
         <v>0.35302359180895171</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C105" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -9890,11 +9892,11 @@
       </c>
       <c r="E105" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C105,D105,PVRstr1_)</f>
-        <v>0.94832891380180462</v>
+        <v>0.96125319059888936</v>
       </c>
       <c r="F105" s="7">
         <f>[1]!PVT_mu_gas_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.5067188178231777E-2</v>
+        <v>1.5875949307699977E-2</v>
       </c>
       <c r="G105" s="7">
         <f>[1]!PVT_mu_oil_cP(C105,D105,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9905,7 +9907,7 @@
         <v>0.3578127065913933</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C106" s="24">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -9916,11 +9918,11 @@
       </c>
       <c r="E106" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C106,D106,PVRstr1_)</f>
-        <v>0.97353289568835177</v>
+        <v>0.97486700616513766</v>
       </c>
       <c r="F106" s="7">
         <f>[1]!PVT_mu_gas_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.5906881569035945E-2</v>
+        <v>1.7240992045821735E-2</v>
       </c>
       <c r="G106" s="7">
         <f>[1]!PVT_mu_oil_cP(C106,D106,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9931,7 +9933,7 @@
         <v>0.36278208207500345</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C107" s="24">
         <f t="shared" ref="C107:D116" si="2">C37</f>
         <v>140</v>
@@ -9942,11 +9944,11 @@
       </c>
       <c r="E107" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C107,D107,PVRstr1_)</f>
-        <v>1.010519545543191</v>
+        <v>1.0124722153490306</v>
       </c>
       <c r="F107" s="7">
         <f>[1]!PVT_mu_gas_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.6786635470529682E-2</v>
+        <v>1.8739305276369276E-2</v>
       </c>
       <c r="G107" s="7">
         <f>[1]!PVT_mu_oil_cP(C107,D107,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9957,7 +9959,7 @@
         <v>0.36793171825978227</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C108" s="24">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -9968,11 +9970,11 @@
       </c>
       <c r="E108" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C108,D108,PVRstr1_)</f>
-        <v>1.0530067961645928</v>
+        <v>1.0556243369610341</v>
       </c>
       <c r="F108" s="7">
         <f>[1]!PVT_mu_gas_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.7696649218225117E-2</v>
+        <v>2.0314190014666292E-2</v>
       </c>
       <c r="G108" s="7">
         <f>[1]!PVT_mu_oil_cP(C108,D108,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -9983,7 +9985,7 @@
         <v>0.3732616151457297</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C109" s="24">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -9994,11 +9996,11 @@
       </c>
       <c r="E109" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C109,D109,PVRstr1_)</f>
-        <v>1.1004514219075594</v>
+        <v>1.1037361591582464</v>
       </c>
       <c r="F109" s="7">
         <f>[1]!PVT_mu_gas_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.8632637091865627E-2</v>
+        <v>2.1917374342552566E-2</v>
       </c>
       <c r="G109" s="7">
         <f>[1]!PVT_mu_oil_cP(C109,D109,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10009,7 +10011,7 @@
         <v>0.37877177273284574</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C110" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
@@ -10020,11 +10022,11 @@
       </c>
       <c r="E110" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C110,D110,PVRstr1_)</f>
-        <v>1.1524269964330116</v>
+        <v>1.156343457343628</v>
       </c>
       <c r="F110" s="7">
         <f>[1]!PVT_mu_gas_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>1.959793520234334E-2</v>
+        <v>2.3514396112959614E-2</v>
       </c>
       <c r="G110" s="7">
         <f>[1]!PVT_mu_oil_cP(C110,D110,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10035,7 +10037,7 @@
         <v>0.38446219102113038</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C111" s="24">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -10046,11 +10048,11 @@
       </c>
       <c r="E111" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C111,D111,PVRstr1_)</f>
-        <v>1.2085814684237663</v>
+        <v>1.213059256352276</v>
       </c>
       <c r="F111" s="7">
         <f>[1]!PVT_mu_gas_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.0606043940918212E-2</v>
+        <v>2.5083831869427847E-2</v>
       </c>
       <c r="G111" s="7">
         <f>[1]!PVT_mu_oil_cP(C111,D111,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10061,7 +10063,7 @@
         <v>0.39033287001058364</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C112" s="24">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -10072,11 +10074,11 @@
       </c>
       <c r="E112" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C112,D112,PVRstr1_)</f>
-        <v>1.2686117082598487</v>
+        <v>1.2735422159272607</v>
       </c>
       <c r="F112" s="7">
         <f>[1]!PVT_mu_gas_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.1683383160038823E-2</v>
+        <v>2.6613890827450862E-2</v>
       </c>
       <c r="G112" s="7">
         <f>[1]!PVT_mu_oil_cP(C112,D112,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10090,7 +10092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C113" s="24">
         <f t="shared" si="2"/>
         <v>260</v>
@@ -10101,11 +10103,11 @@
       </c>
       <c r="E113" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C113,D113,PVRstr1_)</f>
-        <v>1.3322475954904465</v>
+        <v>1.3374748618282903</v>
       </c>
       <c r="F113" s="7">
         <f>[1]!PVT_mu_gas_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.2871605188958734E-2</v>
+        <v>2.8098871526802589E-2</v>
       </c>
       <c r="G113" s="7">
         <f>[1]!PVT_mu_oil_cP(C113,D113,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10116,7 +10118,7 @@
         <v>0.40261501009299605</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C114" s="24">
         <f t="shared" si="2"/>
         <v>280</v>
@@ -10127,11 +10129,11 @@
       </c>
       <c r="E114" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C114,D114,PVRstr1_)</f>
-        <v>1.3992403776034839</v>
+        <v>1.404549030064107</v>
       </c>
       <c r="F114" s="7">
         <f>[1]!PVT_mu_gas_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.422784902336915E-2</v>
+        <v>2.9536501483992422E-2</v>
       </c>
       <c r="G114" s="7">
         <f>[1]!PVT_mu_oil_cP(C114,D114,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10142,7 +10144,7 @@
         <v>0.4090264711859552</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C115" s="24">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -10153,11 +10155,11 @@
       </c>
       <c r="E115" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C115,D115,PVRstr1_)</f>
-        <v>1.46934971037581</v>
+        <v>1.4744565347774614</v>
       </c>
       <c r="F115" s="7">
         <f>[1]!PVT_mu_gas_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.5819443725453597E-2</v>
+        <v>3.092626812710509E-2</v>
       </c>
       <c r="G115" s="7">
         <f>[1]!PVT_mu_oil_cP(C115,D115,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10168,7 +10170,7 @@
         <v>0.4156181929800829</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C116" s="24">
         <f t="shared" si="2"/>
         <v>320</v>
@@ -10179,11 +10181,11 @@
       </c>
       <c r="E116" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C116,D116,PVRstr1_)</f>
-        <v>1.5423218974058981</v>
+        <v>1.5468835521154833</v>
       </c>
       <c r="F116" s="7">
         <f>[1]!PVT_mu_gas_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.7706850757567025E-2</v>
+        <v>3.2268505467152347E-2</v>
       </c>
       <c r="G116" s="7">
         <f>[1]!PVT_mu_oil_cP(C116,D116,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10194,7 +10196,7 @@
         <v>0.42239017547537927</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C117" s="24">
         <f t="shared" ref="C117:D123" si="3">C47</f>
         <v>340</v>
@@ -10205,11 +10207,11 @@
       </c>
       <c r="E117" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C117,D117,PVRstr1_)</f>
-        <v>1.6178516192848016</v>
+        <v>1.621507632183085</v>
       </c>
       <c r="F117" s="7">
         <f>[1]!PVT_mu_gas_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>2.9907947532178368E-2</v>
+        <v>3.3563960430461753E-2</v>
       </c>
       <c r="G117" s="7">
         <f>[1]!PVT_mu_oil_cP(C117,D117,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10220,7 +10222,7 @@
         <v>0.42934241867184425</v>
       </c>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C118" s="24">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -10231,11 +10233,11 @@
       </c>
       <c r="E118" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C118,D118,PVRstr1_)</f>
-        <v>1.695530752708913</v>
+        <v>1.6979965817797602</v>
       </c>
       <c r="F118" s="7">
         <f>[1]!PVT_mu_gas_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.234779767218704E-2</v>
+        <v>3.4813626743034121E-2</v>
       </c>
       <c r="G118" s="7">
         <f>[1]!PVT_mu_oil_cP(C118,D118,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10246,7 +10248,7 @@
         <v>0.4364749225694779</v>
       </c>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C119" s="24">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -10257,11 +10259,11 @@
       </c>
       <c r="E119" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C119,D119,PVRstr1_)</f>
-        <v>1.7748213807568383</v>
+        <v>1.7760086955838463</v>
       </c>
       <c r="F119" s="7">
         <f>[1]!PVT_mu_gas_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.4831394992291626E-2</v>
+        <v>3.6018709819299714E-2</v>
       </c>
       <c r="G119" s="7">
         <f>[1]!PVT_mu_oil_cP(C119,D119,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10272,7 +10274,7 @@
         <v>0.4437876871682801</v>
       </c>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C120" s="24">
         <f t="shared" si="3"/>
         <v>400</v>
@@ -10283,11 +10285,11 @@
       </c>
       <c r="E120" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C120,D120,PVRstr1_)</f>
-        <v>1.8551170932673062</v>
+        <v>1.8551939694352642</v>
       </c>
       <c r="F120" s="7">
         <f>[1]!PVT_mu_gas_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.7103767854624728E-2</v>
+        <v>3.7180644022582574E-2</v>
       </c>
       <c r="G120" s="7">
         <f>[1]!PVT_mu_oil_cP(C120,D120,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10298,7 +10300,7 @@
         <v>0.45128071246825097</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C121" s="24">
         <f t="shared" si="3"/>
         <v>420</v>
@@ -10309,11 +10311,11 @@
       </c>
       <c r="E121" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C121,D121,PVRstr1_)</f>
-        <v>1.9358903786391266</v>
+        <v>1.9351960291509773</v>
       </c>
       <c r="F121" s="7">
         <f>[1]!PVT_mu_gas_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>3.8995470709754662E-2</v>
+        <v>3.8301121221605575E-2</v>
       </c>
       <c r="G121" s="7">
         <f>[1]!PVT_mu_oil_cP(C121,D121,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10324,7 +10326,7 @@
         <v>0.45895399846939039</v>
       </c>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C122" s="24">
         <f t="shared" si="3"/>
         <v>440</v>
@@ -10335,11 +10337,11 @@
       </c>
       <c r="E122" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C122,D122,PVRstr1_)</f>
-        <v>2.0167898633610855</v>
+        <v>2.0156545714779921</v>
       </c>
       <c r="F122" s="7">
         <f>[1]!PVT_mu_gas_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>4.0517403578276795E-2</v>
+        <v>3.9382111695183519E-2</v>
       </c>
       <c r="G122" s="7">
         <f>[1]!PVT_mu_oil_cP(C122,D122,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
@@ -10350,7 +10352,7 @@
         <v>0.46680754517169848</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C123" s="24">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -10361,11 +10363,11 @@
       </c>
       <c r="E123" s="6">
         <f>[1]!MF_mu_mix_cP(Q_,fw_,C123,D123,PVRstr1_)</f>
-        <v>2.0975829431865414</v>
+        <v>2.0962081544363356</v>
       </c>
       <c r="F123" s="7">
         <f>[1]!PVT_mu_gas_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>4.1800659307069124E-2</v>
+        <v>4.0425870556863336E-2</v>
       </c>
       <c r="G123" s="7">
         <f>[1]!PVT_mu_oil_cP(C123,D123,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
